--- a/data/trans_bre/P15-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.7642139583982743</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6641355208983464</v>
+        <v>0.664135520898345</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2794025493786487</v>
@@ -649,7 +649,7 @@
         <v>0.1522680989149882</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1413705038735164</v>
+        <v>0.141370503873516</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.282460212594509</v>
+        <v>-5.357516088449308</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.633067218752527</v>
+        <v>-6.561673153270946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.378629260751379</v>
+        <v>-2.574206668327857</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.769485613008654</v>
+        <v>-1.795095045053995</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6275414625579371</v>
+        <v>-0.6139914841200159</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6599299906533851</v>
+        <v>-0.6406828849169279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.368159895510597</v>
+        <v>-0.4071059598363073</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2993648308658167</v>
+        <v>-0.2895703568524821</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.703679651230246</v>
+        <v>1.586130739825631</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.031866760658828</v>
+        <v>1.552867727392975</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.493581238725933</v>
+        <v>4.515488672403645</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.928210640488772</v>
+        <v>3.18825604830718</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3638518334402783</v>
+        <v>0.3034863796483447</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3710771796803664</v>
+        <v>0.2776122791863274</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.330831985123537</v>
+        <v>1.348629075902113</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.85141984809061</v>
+        <v>0.9165378421627778</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.463395015725633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5789750494417329</v>
+        <v>0.5789750494417344</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5532454365992654</v>
@@ -749,7 +749,7 @@
         <v>0.3274255985876103</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1087249711946416</v>
+        <v>0.1087249711946418</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.327002531244537</v>
+        <v>-7.694708261289398</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.37206601865082</v>
+        <v>-3.572339932473306</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.775652555282683</v>
+        <v>-1.758849322879242</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.497635741223351</v>
+        <v>-2.372158195759454</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7913205764468321</v>
+        <v>-0.8129093574818747</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3687583308249908</v>
+        <v>-0.3849094152086414</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3596598595563216</v>
+        <v>-0.3337511410727234</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3618502932021193</v>
+        <v>-0.3327342139267189</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.3673571891246071</v>
+        <v>-0.5539498749098833</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.415305350356546</v>
+        <v>4.54906224840599</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.985234389693222</v>
+        <v>5.169953016873001</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.311356159244159</v>
+        <v>3.180785356882696</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.00160509473190292</v>
+        <v>-0.06734490007444445</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7824986122109437</v>
+        <v>0.7750457641565419</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.61360304192751</v>
+        <v>1.701070204772936</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9253233909348572</v>
+        <v>0.8641296654376187</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.05832396688832675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.135671349258924</v>
+        <v>-1.135671349258922</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.6633593261330626</v>
@@ -849,7 +849,7 @@
         <v>0.009798134625567527</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1437028146912144</v>
+        <v>-0.1437028146912142</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.951613443697886</v>
+        <v>-8.684352938180542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.086516440026775</v>
+        <v>-7.032336546449924</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.613590548855396</v>
+        <v>-3.78394964848317</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.992613850785715</v>
+        <v>-4.865071077983063</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8796375130465042</v>
+        <v>-0.8708888067514378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6455110760922452</v>
+        <v>-0.6449264411709872</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5438609609121661</v>
+        <v>-0.5740759949347486</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5147318882804967</v>
+        <v>-0.5108061774017253</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.750730172479812</v>
+        <v>-2.09142597244536</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6007223484547257</v>
+        <v>1.214589980810096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.117394026854856</v>
+        <v>4.936356358061278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.417919522744834</v>
+        <v>2.602618621574222</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1636426000974877</v>
+        <v>-0.1647268124555676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08897229079475781</v>
+        <v>0.1606751218259888</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.093419993112261</v>
+        <v>1.000369505264718</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.391505587873509</v>
+        <v>0.4287209633607852</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.473904596657141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.4399058489166732</v>
+        <v>-0.4399058489166746</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1086077665952786</v>
@@ -949,7 +949,7 @@
         <v>-0.09235404881161915</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.06401445594677238</v>
+        <v>-0.06401445594677257</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.082310628488903</v>
+        <v>-3.172839020434103</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.302946561326968</v>
+        <v>-4.210158818695009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.437793095241202</v>
+        <v>-2.458382667511496</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.774263895204194</v>
+        <v>-2.789558120322202</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.403044793470891</v>
+        <v>-0.4040459461053412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4653062546945064</v>
+        <v>-0.4508012920827056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4140207844806849</v>
+        <v>-0.4040842143639907</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3259361997188935</v>
+        <v>-0.344842930225723</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.753202116422766</v>
+        <v>1.476237692928337</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4173293453194919</v>
+        <v>0.447633645572791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.579739610696769</v>
+        <v>1.870298331446417</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.815513651041695</v>
+        <v>1.877870225758585</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.303175936934003</v>
+        <v>0.2597313987131496</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07761750849327789</v>
+        <v>0.06416283328852911</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3565366071051307</v>
+        <v>0.4404370281095976</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3096958249417051</v>
+        <v>0.3440279923161874</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.449581101804826</v>
+        <v>-2.715024542032969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.971229993686006</v>
+        <v>-2.922238458677491</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.976030561186033</v>
+        <v>-3.68744566045235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.554281214754989</v>
+        <v>-3.384834602632268</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3352123376586098</v>
+        <v>-0.3748420642278211</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3220060045027773</v>
+        <v>-0.3167490212236827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4745776352881378</v>
+        <v>-0.4615803573350034</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3741008141923872</v>
+        <v>-0.3573332175269237</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.650254867399464</v>
+        <v>3.592053533070212</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.14985037575264</v>
+        <v>2.978024329513816</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.240519899289133</v>
+        <v>1.359439847478085</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.593855441005927</v>
+        <v>2.584595758188819</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.864405697239064</v>
+        <v>0.9242643232239902</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5332494752003547</v>
+        <v>0.5008961798810631</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2458573252191457</v>
+        <v>0.273309673170847</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4669615701536313</v>
+        <v>0.5145421676822951</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-4.721468702885522</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.096920277548348</v>
+        <v>1.09692027754835</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.4878643030613707</v>
@@ -1149,7 +1149,7 @@
         <v>-0.4580905415732344</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2318906135761698</v>
+        <v>0.2318906135761701</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-8.630489736028064</v>
+        <v>-8.630790216756235</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.062837107497601</v>
+        <v>-5.722662589803096</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-8.945676413217853</v>
+        <v>-9.187811252753415</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.352447576322183</v>
+        <v>-4.038726517738202</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6569850050851858</v>
+        <v>-0.6580143381078544</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4510355111252424</v>
+        <v>-0.4446267987853374</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6575864736594799</v>
+        <v>-0.658136745106318</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4739430257438554</v>
+        <v>-0.4578777791185494</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-1.473138161268667</v>
+        <v>-1.353468193965721</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.844090708806307</v>
+        <v>1.56544226104831</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.989100759504036</v>
+        <v>-1.122043968996012</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.384938240436283</v>
+        <v>4.3614640844061</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1970360886107591</v>
+        <v>-0.1941850959521524</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2804669451876404</v>
+        <v>0.2348098470529582</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.14379938599241</v>
+        <v>-0.1513340179391473</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.60470731911763</v>
+        <v>2.309067718128618</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-0.4751823462848873</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.1377637088227086</v>
+        <v>-0.1377637088227079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2983993926888017</v>
@@ -1249,7 +1249,7 @@
         <v>-0.080589340937273</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.02173533010330541</v>
+        <v>-0.0217353301033053</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.529925084937174</v>
+        <v>-3.464213494758941</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.527017502932566</v>
+        <v>-2.437367497403008</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.611492485376268</v>
+        <v>-1.641642421784079</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.237647259674869</v>
+        <v>-1.387817869592707</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4278164281800949</v>
+        <v>-0.4245025174877638</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2775991312989239</v>
+        <v>-0.2663543409642196</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2440088265813996</v>
+        <v>-0.253304513048261</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.176857051871969</v>
+        <v>-0.1951827750808519</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.093611145042684</v>
+        <v>-1.130778966533806</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2923796652456047</v>
+        <v>0.1459469224555915</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6488518712120444</v>
+        <v>0.7069254050632385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9924577950147931</v>
+        <v>0.8920334886805206</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1546454381249163</v>
+        <v>-0.1607288447943225</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03563005428724508</v>
+        <v>0.01887262826502872</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1210745136883199</v>
+        <v>0.1377959820086531</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1725082737878745</v>
+        <v>0.1615219154262796</v>
       </c>
     </row>
     <row r="25">
